--- a/第三反復/要求分析/テスト仕様書_三目並べ (反復3).xlsx
+++ b/第三反復/要求分析/テスト仕様書_三目並べ (反復3).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\ミニプロ\反復3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49320E27-162F-400A-AC59-9D2A1CB194A5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{738B66ED-842F-4380-B125-0AACD4934184}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>テストレベル</t>
     <phoneticPr fontId="2"/>
@@ -122,19 +122,6 @@
     <t>システム全体</t>
   </si>
   <si>
-    <t>履歴が保存されている場合</t>
-    <rPh sb="0" eb="2">
-      <t>リレキ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ホゾン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>履歴がありません</t>
     <rPh sb="0" eb="2">
       <t>リレキ</t>
@@ -207,6 +194,114 @@
     </rPh>
     <rPh sb="25" eb="27">
       <t>ソンザイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>前回の履歴がすでに保存されており、
+もう一度新たにゲームを行った場合</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンカイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>リレキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>イチド</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>アラ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プレイヤーの二人が実際にゲームを行う
+座標をお互いに指定しどちらかが勝つように進める
+1.先攻が座標(1,1)を入力する
+2.後攻が座標(2,1)を入力する
+3先攻が座標(2,2)を入力する
+4.後攻が座標(1,2)を入力する
+5.先攻が座標(3,3)を入力する
+6.もう一度ゲームを開始した際に、「履歴を表示」を選択する。</t>
+    <rPh sb="81" eb="83">
+      <t>センコウ</t>
+    </rPh>
+    <rPh sb="99" eb="101">
+      <t>コウコウ</t>
+    </rPh>
+    <rPh sb="117" eb="119">
+      <t>センコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>勝者：先攻
+(マスの状況)
+&lt;ターン履歴&gt;
+先攻(1,1)〇
+後攻(2,1)×
+先攻(2,2)〇
+後攻(1,2)×
+先攻(3,3)〇</t>
+    <rPh sb="0" eb="2">
+      <t>ショウシャ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>センコウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>リレキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">履歴が保存されている場合
+</t>
+    <rPh sb="0" eb="2">
+      <t>リレキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>テストケース1に続けて行う</t>
+    <rPh sb="8" eb="9">
+      <t>ツヅ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>テストケース2に
+続けて行う</t>
+    <rPh sb="9" eb="10">
+      <t>ツヅ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>オコナ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -519,7 +614,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -626,6 +721,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -971,8 +1069,8 @@
   </sheetPr>
   <dimension ref="B1:AS17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7:S7"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AP10" sqref="AP10:AS10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1"/>
@@ -1245,10 +1343,10 @@
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F7" s="18"/>
       <c r="G7" s="18"/>
@@ -1265,7 +1363,7 @@
       <c r="R7" s="18"/>
       <c r="S7" s="18"/>
       <c r="T7" s="23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="U7" s="24"/>
       <c r="V7" s="24"/>
@@ -1298,11 +1396,11 @@
         <v>11</v>
       </c>
       <c r="C8" s="16"/>
-      <c r="D8" s="3" t="s">
-        <v>14</v>
+      <c r="D8" s="35" t="s">
+        <v>23</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F8" s="18"/>
       <c r="G8" s="18"/>
@@ -1319,7 +1417,7 @@
       <c r="R8" s="18"/>
       <c r="S8" s="18"/>
       <c r="T8" s="23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U8" s="24"/>
       <c r="V8" s="24"/>
@@ -1342,16 +1440,24 @@
       <c r="AM8" s="13"/>
       <c r="AN8" s="13"/>
       <c r="AO8" s="13"/>
-      <c r="AP8" s="22"/>
+      <c r="AP8" s="22" t="s">
+        <v>24</v>
+      </c>
       <c r="AQ8" s="13"/>
       <c r="AR8" s="13"/>
       <c r="AS8" s="14"/>
     </row>
-    <row r="9" spans="2:45" ht="94.5" customHeight="1">
-      <c r="B9" s="15"/>
+    <row r="9" spans="2:45" ht="122.25" customHeight="1">
+      <c r="B9" s="15" t="s">
+        <v>19</v>
+      </c>
       <c r="C9" s="16"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="17"/>
+      <c r="D9" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>21</v>
+      </c>
       <c r="F9" s="18"/>
       <c r="G9" s="18"/>
       <c r="H9" s="18"/>
@@ -1366,11 +1472,13 @@
       <c r="Q9" s="18"/>
       <c r="R9" s="18"/>
       <c r="S9" s="18"/>
-      <c r="T9" s="17"/>
-      <c r="U9" s="18"/>
-      <c r="V9" s="18"/>
-      <c r="W9" s="18"/>
-      <c r="X9" s="18"/>
+      <c r="T9" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="U9" s="24"/>
+      <c r="V9" s="24"/>
+      <c r="W9" s="24"/>
+      <c r="X9" s="25"/>
       <c r="Y9" s="13"/>
       <c r="Z9" s="13"/>
       <c r="AA9" s="13"/>
@@ -1388,7 +1496,9 @@
       <c r="AM9" s="13"/>
       <c r="AN9" s="13"/>
       <c r="AO9" s="13"/>
-      <c r="AP9" s="13"/>
+      <c r="AP9" s="36" t="s">
+        <v>25</v>
+      </c>
       <c r="AQ9" s="13"/>
       <c r="AR9" s="13"/>
       <c r="AS9" s="14"/>
